--- a/coordination_failures/FishData2.xlsx
+++ b/coordination_failures/FishData2.xlsx
@@ -359,298 +359,794 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.00000000000000888178419700125</v>
       </c>
       <c r="B2" t="n">
-        <v>330882.352941177</v>
+        <v>329454.545454545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>0.888888888888896</v>
       </c>
       <c r="B3" t="n">
-        <v>311029.411764706</v>
+        <v>320727.272727273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1.92592592592593</v>
       </c>
       <c r="B4" t="n">
-        <v>260294.117647059</v>
+        <v>314181.818181818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2.22222222222223</v>
       </c>
       <c r="B5" t="n">
-        <v>375000</v>
+        <v>294545.454545455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2.96296296296297</v>
       </c>
       <c r="B6" t="n">
-        <v>333088.235294118</v>
+        <v>259636.363636364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3.25925925925927</v>
       </c>
       <c r="B7" t="n">
-        <v>372794.117647059</v>
+        <v>281454.545454546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>3.55555555555556</v>
       </c>
       <c r="B8" t="n">
-        <v>372794.117647059</v>
+        <v>307636.363636364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>3.70370370370371</v>
       </c>
       <c r="B9" t="n">
-        <v>306617.647058824</v>
+        <v>333818.181818182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>4.00000000000001</v>
       </c>
       <c r="B10" t="n">
-        <v>381617.647058824</v>
+        <v>357818.181818182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>4.00000000000001</v>
       </c>
       <c r="B11" t="n">
-        <v>361764.705882353</v>
+        <v>375272.727272727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>4.5925925925926</v>
       </c>
       <c r="B12" t="n">
-        <v>306617.647058824</v>
+        <v>353454.545454546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>5.03703703703705</v>
       </c>
       <c r="B13" t="n">
-        <v>346323.529411765</v>
+        <v>333818.181818182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>5.48148148148149</v>
       </c>
       <c r="B14" t="n">
-        <v>355147.05882353</v>
+        <v>353454.545454546</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>6.07407407407408</v>
       </c>
       <c r="B15" t="n">
-        <v>337500</v>
+        <v>370909.090909091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>6.81481481481483</v>
       </c>
       <c r="B16" t="n">
-        <v>333088.235294118</v>
+        <v>370909.090909091</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>7.11111111111112</v>
       </c>
       <c r="B17" t="n">
-        <v>304411.764705883</v>
+        <v>355636.363636364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>7.55555555555556</v>
       </c>
       <c r="B18" t="n">
-        <v>350735.294117647</v>
+        <v>333818.181818182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>8.00000000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>200735.294117647</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>8.44444444444445</v>
       </c>
       <c r="B20" t="n">
-        <v>180882.352941177</v>
+        <v>338181.818181818</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>8.74074074074075</v>
       </c>
       <c r="B21" t="n">
-        <v>478676.470588235</v>
+        <v>357818.181818182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>9.03703703703705</v>
       </c>
       <c r="B22" t="n">
-        <v>485294.117647059</v>
+        <v>379636.363636364</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>9.92592592592594</v>
       </c>
       <c r="B23" t="n">
-        <v>566911.764705882</v>
+        <v>362181.818181818</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>10.3703703703704</v>
       </c>
       <c r="B24" t="n">
-        <v>566911.764705882</v>
+        <v>342545.454545455</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>10.6666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>520588.235294118</v>
+        <v>327272.727272727</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>10.962962962963</v>
       </c>
       <c r="B26" t="n">
-        <v>520588.235294118</v>
+        <v>309818.181818182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>11.7037037037037</v>
       </c>
       <c r="B27" t="n">
-        <v>489705.882352941</v>
+        <v>333818.181818182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>12.2962962962963</v>
       </c>
       <c r="B28" t="n">
-        <v>507352.941176471</v>
+        <v>349090.909090909</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>12.8888888888889</v>
       </c>
       <c r="B29" t="n">
-        <v>438970.588235294</v>
+        <v>355636.363636364</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>37500.0000000001</v>
+        <v>346909.090909091</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>13.7777777777778</v>
       </c>
       <c r="B31" t="n">
-        <v>28676.4705882354</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>15.2592592592593</v>
       </c>
       <c r="B32" t="n">
-        <v>37500.0000000001</v>
+        <v>331636.363636364</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>16.2962962962963</v>
       </c>
       <c r="B33" t="n">
-        <v>48529.4117647059</v>
+        <v>322909.090909091</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>16.8888888888889</v>
       </c>
       <c r="B34" t="n">
-        <v>66176.4705882353</v>
+        <v>305454.545454546</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>17.3333333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>59558.8235294118</v>
+        <v>325090.909090909</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>17.9259259259259</v>
       </c>
       <c r="B36" t="n">
-        <v>52941.1764705883</v>
+        <v>344727.272727273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>18.5185185185185</v>
       </c>
       <c r="B37" t="n">
-        <v>35294.1176470589</v>
+        <v>331636.363636364</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>19.1111111111111</v>
       </c>
       <c r="B38" t="n">
-        <v>35294.1176470589</v>
+        <v>320727.272727273</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19.7037037037037</v>
+      </c>
+      <c r="B39" t="n">
+        <v>301090.909090909</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20.2962962962963</v>
+      </c>
+      <c r="B40" t="n">
+        <v>283636.363636364</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>21.037037037037</v>
+      </c>
+      <c r="B41" t="n">
+        <v>268363.636363636</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>21.7777777777778</v>
+      </c>
+      <c r="B42" t="n">
+        <v>250909.090909091</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>22.3703703703704</v>
+      </c>
+      <c r="B43" t="n">
+        <v>233454.545454546</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>22.6666666666667</v>
+      </c>
+      <c r="B44" t="n">
+        <v>213818.181818182</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>23.2592592592593</v>
+      </c>
+      <c r="B45" t="n">
+        <v>200727.272727273</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>24</v>
+      </c>
+      <c r="B46" t="n">
+        <v>187636.363636364</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>24.8888888888889</v>
+      </c>
+      <c r="B47" t="n">
+        <v>183272.727272727</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>25.6296296296296</v>
+      </c>
+      <c r="B48" t="n">
+        <v>202909.090909091</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>26.0740740740741</v>
+      </c>
+      <c r="B49" t="n">
+        <v>226909.090909091</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>26.6666666666667</v>
+      </c>
+      <c r="B50" t="n">
+        <v>253090.909090909</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27.1111111111111</v>
+      </c>
+      <c r="B51" t="n">
+        <v>281454.545454546</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27.5555555555556</v>
+      </c>
+      <c r="B52" t="n">
+        <v>316363.636363637</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>28.2962962962963</v>
+      </c>
+      <c r="B53" t="n">
+        <v>353454.545454546</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>28.7407407407407</v>
+      </c>
+      <c r="B54" t="n">
+        <v>394909.090909091</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>29.3333333333333</v>
+      </c>
+      <c r="B55" t="n">
+        <v>434181.818181818</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>29.9259259259259</v>
+      </c>
+      <c r="B56" t="n">
+        <v>475636.363636364</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>30.962962962963</v>
+      </c>
+      <c r="B57" t="n">
+        <v>482181.818181818</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31.4074074074074</v>
+      </c>
+      <c r="B58" t="n">
+        <v>510545.454545455</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31.8518518518518</v>
+      </c>
+      <c r="B59" t="n">
+        <v>538909.090909091</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31.8518518518518</v>
+      </c>
+      <c r="B60" t="n">
+        <v>562909.090909091</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32.8888888888889</v>
+      </c>
+      <c r="B61" t="n">
+        <v>562909.090909091</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33.4814814814815</v>
+      </c>
+      <c r="B62" t="n">
+        <v>543272.727272727</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33.7777777777778</v>
+      </c>
+      <c r="B63" t="n">
+        <v>521454.545454545</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34.8148148148148</v>
+      </c>
+      <c r="B64" t="n">
+        <v>521454.545454545</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35.7037037037037</v>
+      </c>
+      <c r="B65" t="n">
+        <v>506181.818181818</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37.037037037037</v>
+      </c>
+      <c r="B66" t="n">
+        <v>486545.454545455</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37.9259259259259</v>
+      </c>
+      <c r="B67" t="n">
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38.5185185185185</v>
+      </c>
+      <c r="B68" t="n">
+        <v>482181.818181818</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39.2592592592593</v>
+      </c>
+      <c r="B69" t="n">
+        <v>460363.636363636</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39.8518518518519</v>
+      </c>
+      <c r="B70" t="n">
+        <v>442909.090909091</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>40.4444444444444</v>
+      </c>
+      <c r="B71" t="n">
+        <v>412363.636363636</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>40.4444444444444</v>
+      </c>
+      <c r="B72" t="n">
+        <v>390545.454545455</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>40.8888888888889</v>
+      </c>
+      <c r="B73" t="n">
+        <v>366545.454545455</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>41.1851851851852</v>
+      </c>
+      <c r="B74" t="n">
+        <v>327272.727272727</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>41.4814814814815</v>
+      </c>
+      <c r="B75" t="n">
+        <v>305454.545454546</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>41.4814814814815</v>
+      </c>
+      <c r="B76" t="n">
+        <v>279272.727272727</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>41.7777777777778</v>
+      </c>
+      <c r="B77" t="n">
+        <v>250909.090909091</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>41.9259259259259</v>
+      </c>
+      <c r="B78" t="n">
+        <v>224727.272727273</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42.2222222222222</v>
+      </c>
+      <c r="B79" t="n">
+        <v>196363.636363636</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42.2222222222222</v>
+      </c>
+      <c r="B80" t="n">
+        <v>172363.636363637</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42.6666666666667</v>
+      </c>
+      <c r="B81" t="n">
+        <v>150545.454545455</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42.6666666666667</v>
+      </c>
+      <c r="B82" t="n">
+        <v>128727.272727273</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42.962962962963</v>
+      </c>
+      <c r="B83" t="n">
+        <v>106909.090909091</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>43.2592592592593</v>
+      </c>
+      <c r="B84" t="n">
+        <v>87272.7272727274</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>43.5555555555556</v>
+      </c>
+      <c r="B85" t="n">
+        <v>69818.1818181819</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>43.8518518518519</v>
+      </c>
+      <c r="B86" t="n">
+        <v>48000.0000000002</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>44.2962962962963</v>
+      </c>
+      <c r="B87" t="n">
+        <v>39272.7272727274</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>44.8888888888889</v>
+      </c>
+      <c r="B88" t="n">
+        <v>30545.4545454547</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>45.7777777777778</v>
+      </c>
+      <c r="B89" t="n">
+        <v>37090.9090909092</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="B90" t="n">
+        <v>45818.1818181819</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>47.7037037037037</v>
+      </c>
+      <c r="B91" t="n">
+        <v>50181.8181818184</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>48.8888888888889</v>
+      </c>
+      <c r="B92" t="n">
+        <v>72000.0000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>49.9259259259259</v>
+      </c>
+      <c r="B93" t="n">
+        <v>61090.9090909092</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>51.4074074074074</v>
+      </c>
+      <c r="B94" t="n">
+        <v>58909.0909090911</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>52.1481481481482</v>
+      </c>
+      <c r="B95" t="n">
+        <v>50181.8181818184</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>52.5925925925926</v>
+      </c>
+      <c r="B96" t="n">
+        <v>39272.7272727274</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>53.1851851851852</v>
+      </c>
+      <c r="B97" t="n">
+        <v>32727.2727272729</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>54.5185185185185</v>
+      </c>
+      <c r="B98" t="n">
+        <v>37090.9090909092</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>56</v>
+      </c>
+      <c r="B99" t="n">
+        <v>37090.9090909092</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>57.4814814814815</v>
+      </c>
+      <c r="B100" t="n">
+        <v>37090.9090909092</v>
       </c>
     </row>
   </sheetData>
